--- a/assets/files/CV4.xlsx
+++ b/assets/files/CV4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9816" windowHeight="5520"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -311,12 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,1999 +625,1997 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="20" max="20" width="8.85546875" style="4"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="20" max="20" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>32.1608040201005</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>51.758793969849243</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>8.0402010050251249</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>6.5326633165829149</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>1.5075376884422111</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>199</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>22.75132275132275</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>57.671957671957671</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>14.285714285714286</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>5.2910052910052912</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="4">
         <v>0</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="5">
         <v>189</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="4">
         <v>27.577319587628867</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="4">
         <v>54.639175257731956</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="4">
         <v>11.082474226804123</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="4">
         <v>5.927835051546392</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="4">
         <v>0.77319587628865982</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="5">
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>46.184738955823292</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>28.112449799196789</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>8.4337349397590362</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>16.867469879518072</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>0.40160642570281124</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>249</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>36.666666666666664</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>35.833333333333336</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>16.666666666666668</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>8.3333333333333339</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4">
         <v>2.5</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>120</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <v>43.08943089430894</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>30.62330623306233</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>11.111111111111111</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>14.092140921409214</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="4">
         <v>1.084010840108401</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="5">
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>20.935412026726059</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>50.334075723830736</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>14.031180400890868</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>8.908685968819599</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>5.7906458797327396</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>449</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>16.736401673640167</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>58.15899581589958</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>20.0836820083682</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>2.510460251046025</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="4">
         <v>2.510460251046025</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="5">
         <v>239</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <v>19.476744186046513</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="4">
         <v>53.052325581395351</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>16.13372093023256</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>6.6860465116279073</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="4">
         <v>4.6511627906976747</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="5">
         <v>688</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>43.037974683544306</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>41.77215189873418</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>12.658227848101266</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>1.2658227848101267</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <v>1.2658227848101267</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>79</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>28.776978417266186</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>55.035971223021583</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>12.949640287769784</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>2.1582733812949639</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="4">
         <v>1.079136690647482</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="5">
         <v>278</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <v>31.932773109243698</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <v>52.100840336134453</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <v>12.88515406162465</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <v>1.9607843137254901</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="4">
         <v>1.1204481792717087</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>21.857923497267759</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>51.912568306010932</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>14.207650273224044</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>6.557377049180328</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>5.4644808743169397</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>183</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>20.754716981132077</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>52.830188679245282</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>16.037735849056602</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>3.7735849056603774</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>6.6037735849056602</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>106</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="4">
         <v>21.453287197231834</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="4">
         <v>52.249134948096888</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="4">
         <v>14.878892733564014</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="4">
         <v>5.5363321799307954</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="4">
         <v>5.882352941176471</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="5">
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>19.487179487179485</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>54.358974358974358</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>16.923076923076923</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>4.615384615384615</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>4.615384615384615</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>195</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>9.3896713615023479</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>57.74647887323944</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>22.535211267605632</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>3.2863849765258215</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>7.042253521126761</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>14.215686274509803</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>56.127450980392155</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>19.852941176470587</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>3.9215686274509802</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>5.882352941176471</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="5">
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>26.19047619047619</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>45.238095238095241</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>4.7619047619047619</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>21.428571428571427</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>2.3809523809523809</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>42</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>15.596330275229358</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>60.550458715596328</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>17.125382262996943</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>5.5045871559633026</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4">
         <v>1.2232415902140672</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <v>327</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <v>16.802168021680217</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="4">
         <v>58.807588075880759</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="4">
         <v>15.718157181571815</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="4">
         <v>7.3170731707317076</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="4">
         <v>1.3550135501355014</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="5">
         <v>369</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>23.673469387755102</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>56.734693877551024</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>8.9795918367346932</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>6.5306122448979593</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>4.0816326530612246</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>245</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>25.899280575539567</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>51.798561151079134</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>12.949640287769784</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>7.1942446043165464</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>2.1582733812949639</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="5">
         <v>139</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>24.479166666666668</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>54.947916666666664</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>10.416666666666666</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>6.770833333333333</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>3.3854166666666665</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="5">
         <v>384</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>25.287356321839081</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>62.068965517241381</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>3.4482758620689653</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>8.0459770114942533</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>1.1494252873563218</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>30.960854092526692</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>56.227758007117437</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>6.0498220640569391</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>5.6939501779359434</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>1.0676156583629892</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="5">
         <v>281</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="4">
         <v>29.619565217391305</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="4">
         <v>57.608695652173914</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="4">
         <v>5.4347826086956523</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="4">
         <v>6.25</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="4">
         <v>1.0869565217391304</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="5">
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>11</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>49.5</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>11</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>28</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <v>0.5</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>200</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>3.867403314917127</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>38.674033149171272</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>56.353591160220994</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>1.1049723756906078</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="4">
         <v>0</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="5">
         <v>181</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <v>7.6115485564304466</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="4">
         <v>44.356955380577425</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <v>32.54593175853018</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="4">
         <v>15.223097112860893</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="4">
         <v>0.26246719160104987</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>50</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>22.123893805309734</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>27.876106194690266</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <v>0</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>226</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>9.7402597402597397</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>66.883116883116884</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
         <v>20.129870129870131</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <v>3.2467532467532467</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="4">
         <v>0</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="5">
         <v>154</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <v>33.684210526315788</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <v>40.263157894736842</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <v>8.1578947368421044</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <v>17.894736842105264</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="4">
         <v>0</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>16</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>46.222222222222221</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>13.777777777777779</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>12.888888888888889</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>11.111111111111111</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>225</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>11.111111111111111</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>51.851851851851855</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>28.703703703703702</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>7.4074074074074074</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4">
         <v>0.92592592592592593</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>108</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <v>14.414414414414415</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <v>48.048048048048045</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <v>18.618618618618619</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="4">
         <v>11.111111111111111</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="4">
         <v>7.8078078078078077</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="5">
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>25.203252032520325</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>46.341463414634148</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>11.382113821138212</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>10.56910569105691</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>6.5040650406504064</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>123</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>21.513944223107568</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>56.972111553784863</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>4.382470119521912</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>11.553784860557769</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>5.5776892430278888</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>251</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <v>22.727272727272727</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="4">
         <v>53.475935828877006</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="4">
         <v>6.6844919786096257</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="4">
         <v>11.229946524064172</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="4">
         <v>5.882352941176471</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="5">
         <v>374</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>50</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>2.0833333333333335</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="4">
         <v>0</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="4">
         <v>14.583333333333334</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>48</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>38.253012048192772</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>52.108433734939759</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>6.927710843373494</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <v>2.1084337349397591</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="4">
         <v>0.60240963855421692</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="5">
         <v>332</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="4">
         <v>37.631578947368418</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="4">
         <v>51.842105263157897</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="4">
         <v>6.3157894736842106</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="4">
         <v>1.8421052631578947</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="4">
         <v>2.3684210526315788</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>7.3825503355704694</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>77.181208053691279</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>12.751677852348994</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>2.6845637583892619</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="4">
         <v>0</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>149</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>5.0847457627118642</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>63.983050847457626</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>30.508474576271187</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="4">
         <v>0.42372881355932202</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="4">
         <v>0</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="5">
         <v>236</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <v>5.9740259740259738</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <v>69.090909090909093</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="4">
         <v>23.636363636363637</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="4">
         <v>1.2987012987012987</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="4">
         <v>0</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="5">
         <v>385</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <v>0</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="4">
         <v>0</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <v>0</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="4">
         <v>15.526315789473685</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>49.210526315789473</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>25.789473684210527</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>7.8947368421052628</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="4">
         <v>1.5789473684210527</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>380</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <v>15.526315789473685</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <v>49.210526315789473</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <v>25.789473684210527</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <v>7.8947368421052628</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="4">
         <v>1.5789473684210527</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>42.10526315789474</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>34.210526315789473</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>10.526315789473685</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>7.8947368421052628</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <v>5.2631578947368425</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>38</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>34.411764705882355</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>49.117647058823529</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <v>1.1764705882352942</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <v>12.058823529411764</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="4">
         <v>3.2352941176470589</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>340</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <v>35.185185185185183</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>47.61904761904762</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <v>2.1164021164021163</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>11.640211640211641</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <v>3.4391534391534391</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="5">
         <v>378</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>37.356321839080458</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>50</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>5.1724137931034484</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>5.1724137931034484</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="4">
         <v>2.2988505747126435</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>174</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>12.568306010928962</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>64.480874316939889</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="4">
         <v>22.404371584699454</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="4">
         <v>0.54644808743169404</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="4">
         <v>0</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="5">
         <v>183</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="4">
         <v>24.649859943977592</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="4">
         <v>57.422969187675072</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="4">
         <v>14.005602240896359</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="4">
         <v>2.8011204481792715</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="4">
         <v>1.1204481792717087</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>30.303030303030305</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>21.212121212121211</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>15.151515151515152</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="4">
         <v>0</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>33</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>43.715846994535518</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>32.786885245901637</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>4.918032786885246</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <v>16.120218579234972</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <v>2.459016393442623</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>366</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="4">
         <v>42.857142857142854</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="4">
         <v>32.581453634085214</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="4">
         <v>6.2656641604010028</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="4">
         <v>16.040100250626566</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="4">
         <v>2.255639097744361</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="5">
         <v>399</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>26.108374384236452</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>44.827586206896555</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>14.77832512315271</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>9.3596059113300498</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>4.9261083743842367</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>203</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>18.333333333333332</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>57.777777777777779</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <v>15</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="4">
         <v>7.2222222222222223</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="4">
         <v>1.6666666666666667</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <v>180</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="4">
         <v>22.454308093994779</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="4">
         <v>50.913838120104437</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="4">
         <v>14.882506527415144</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="4">
         <v>8.3550913838120113</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="4">
         <v>3.3942558746736293</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>24.855491329479769</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>49.710982658959537</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>13.294797687861271</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>4.6242774566473992</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="4">
         <v>7.5144508670520231</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>173</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>20.975609756097562</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>54.634146341463413</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <v>12.195121951219512</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="4">
         <v>7.3170731707317076</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>4.8780487804878048</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>205</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="4">
         <v>22.75132275132275</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="4">
         <v>52.38095238095238</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <v>12.698412698412698</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="4">
         <v>6.0846560846560847</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <v>6.0846560846560847</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="5">
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>26.737967914438503</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>49.197860962566843</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>7.4866310160427805</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>8.5561497326203213</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="4">
         <v>8.0213903743315509</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>187</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="4">
         <v>27.692307692307693</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>48.717948717948715</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <v>11.282051282051283</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <v>5.6410256410256414</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <v>195</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <v>27.225130890052355</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <v>48.952879581151834</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <v>7.0680628272251305</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="4">
         <v>9.9476439790575917</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="4">
         <v>6.8062827225130889</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="5">
         <v>382</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>5.625</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>2.8125</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>0.9375</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>88.75</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <v>1.875</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>320</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="4">
         <v>25.806451612903224</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="4">
         <v>58.064516129032256</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <v>11.290322580645162</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="4">
         <v>4.838709677419355</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="4">
         <v>0</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="5">
         <v>62</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="4">
         <v>8.9005235602094235</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="4">
         <v>11.780104712041885</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <v>2.6178010471204187</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="4">
         <v>75.130890052356023</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="4">
         <v>1.5706806282722514</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="5">
         <v>382</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>34.574468085106382</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>38.829787234042556</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>6.9148936170212769</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>11.170212765957446</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>8.5106382978723403</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>188</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="4">
         <v>18.229166666666668</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="4">
         <v>53.125</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <v>15.625</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="4">
         <v>8.8541666666666661</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="4">
         <v>4.166666666666667</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>192</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="4">
         <v>26.315789473684209</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="4">
         <v>46.05263157894737</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="4">
         <v>11.315789473684211</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="4">
         <v>10</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="4">
         <v>6.3157894736842106</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>21.527777777777779</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>63.020833333333336</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>8.1597222222222214</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>5.0347222222222223</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>2.2569444444444446</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>576</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="4">
         <v>30.900967982129561</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="4">
         <v>40.580789277736415</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <v>19.657483246463141</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="4">
         <v>7.6693968726731203</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="4">
         <v>1.1913626209977661</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>1343</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="4">
         <v>28.087545596664931</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="4">
         <v>47.316310578426261</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>16.20635747785305</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="4">
         <v>6.8785825951016157</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="4">
         <v>1.5112037519541428</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="5">
         <v>1919</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>27.941176470588236</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>67.647058823529406</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>1.4705882352941178</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>2.9411764705882355</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="4">
         <v>0</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="5">
         <v>136</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="4">
         <v>23.35216572504708</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="4">
         <v>61.393596986817329</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <v>8.4745762711864412</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="4">
         <v>6.0263653483992465</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="4">
         <v>0.75329566854990582</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="5">
         <v>531</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="4">
         <v>24.287856071964018</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="4">
         <v>62.668665667166415</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="4">
         <v>7.0464767616191901</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="4">
         <v>5.3973013493253372</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="4">
         <v>0.59970014992503751</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="5">
         <v>667</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>26.515151515151516</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>55.303030303030305</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>6.8181818181818183</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>4.5454545454545459</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>6.8181818181818183</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>132</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="4">
         <v>26.063829787234042</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="4">
         <v>51.595744680851062</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <v>6.9148936170212769</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="4">
         <v>10.106382978723405</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <v>5.3191489361702127</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>188</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="4">
         <v>26.25</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <v>53.125</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <v>6.875</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="4">
         <v>7.8125</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="4">
         <v>5.9375</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="5">
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>36.842105263157897</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>40.350877192982459</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>4.3859649122807021</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>11.842105263157896</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <v>6.5789473684210522</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>228</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="4">
         <v>28.099173553719009</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4">
         <v>48.760330578512395</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <v>4.9586776859504136</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="4">
         <v>9.0909090909090917</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="4">
         <v>9.0909090909090917</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="5">
         <v>121</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="4">
         <v>33.810888252148999</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="4">
         <v>43.266475644699142</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="4">
         <v>4.5845272206303722</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="4">
         <v>10.888252148997134</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="4">
         <v>7.4498567335243555</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="5">
         <v>349</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>32.258064516129032</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>41.29032258064516</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>5.806451612903226</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>16.774193548387096</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="4">
         <v>3.870967741935484</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <v>155</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="4">
         <v>37.662337662337663</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="4">
         <v>45.021645021645021</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>4.7619047619047619</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="4">
         <v>7.7922077922077921</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <v>4.7619047619047619</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>231</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="4">
         <v>35.49222797927461</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <v>43.523316062176164</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="4">
         <v>5.1813471502590671</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="4">
         <v>11.398963730569948</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="4">
         <v>4.4041450777202069</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="5">
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>26.126126126126128</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>45.045045045045043</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>16.216216216216218</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>3.6036036036036037</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="4">
         <v>9.0090090090090094</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <v>111</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>34.926470588235297</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>42.279411764705884</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>7.7205882352941178</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="4">
         <v>9.5588235294117645</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <v>5.5147058823529411</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>272</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="4">
         <v>32.375979112271537</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <v>43.080939947780678</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="4">
         <v>10.182767624020888</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="4">
         <v>7.8328981723237598</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="4">
         <v>6.5274151436031334</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>28.571428571428573</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>50</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>7.1428571428571432</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
         <v>7.1428571428571432</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="4">
         <v>7.1428571428571432</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="5">
         <v>14</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>25.833333333333332</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="4">
         <v>54.166666666666664</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <v>12.222222222222221</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="4">
         <v>5</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <v>2.7777777777777777</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>360</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="4">
         <v>25.935828877005349</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <v>54.010695187165773</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <v>12.032085561497325</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="4">
         <v>5.0802139037433154</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <v>2.9411764705882355</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="5">
         <v>374</v>
       </c>
     </row>
